--- a/AplicacionWeb/WebVista/produccion/produccion/Administracion/Campanna3Excel_BD.xlsx
+++ b/AplicacionWeb/WebVista/produccion/produccion/Administracion/Campanna3Excel_BD.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User-Pc\Downloads\Importacion_CSharp\Importacion_CSharp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C37F5E-60E9-4EF8-B9A0-36FB69C997A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B750D7C-12AB-444B-8259-0D6CC41B805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="25">
   <si>
     <t>CAMPANNASNOMBRE</t>
   </si>
@@ -42,22 +43,64 @@
     <t>CAMPANNAPRODUCTO</t>
   </si>
   <si>
-    <t>CAMPANNACODIGO</t>
-  </si>
-  <si>
-    <t>dario</t>
-  </si>
-  <si>
-    <t>quinayas</t>
-  </si>
-  <si>
     <t>calle</t>
   </si>
   <si>
-    <t>café</t>
-  </si>
-  <si>
-    <t>123dario</t>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>xxxxx</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
 </sst>
 </file>
@@ -73,18 +116,54 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -93,9 +172,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,7 +475,7 @@
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,35 +491,376 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740C6123-E931-491D-AEE6-D32DA74FA42A}">
+  <dimension ref="B3:P13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>